--- a/EINKAUF.xlsx
+++ b/EINKAUF.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04C4D901-A42C-4943-B7A3-26F4B1630ABF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Artikel</t>
   </si>
@@ -112,12 +113,15 @@
   </si>
   <si>
     <t>Paniermehl</t>
+  </si>
+  <si>
+    <t>sadfsdfsdfwfew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +448,7 @@
     <col min="2" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -472,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -480,7 +484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -488,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -496,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -504,42 +508,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
